--- a/data/processed/Finanzas.xlsx
+++ b/data/processed/Finanzas.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Liverpool</t>
   </si>
   <si>
-    <t xml:space="preserve">Totthenham</t>
+    <t xml:space="preserve">Tottenham Hotspur</t>
   </si>
   <si>
     <t xml:space="preserve">Chelsea</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">Bristol City</t>
   </si>
   <si>
-    <t xml:space="preserve">Luton</t>
+    <t xml:space="preserve">Luton Town</t>
   </si>
   <si>
     <t xml:space="preserve">Hull City</t>
